--- a/data/trans_orig/P21_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2DE0F26-412F-444C-B7BB-6EA6F64176EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3420AD-3E41-4A42-A79A-761326405512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A73C8E5-1BC2-4064-B14A-8CB3EB245F56}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF6AE696-192B-4276-AF5F-24F27B459584}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -80,1459 +80,1465 @@
     <t>16,32%</t>
   </si>
   <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>23,9%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>84,89%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>72,42%</t>
   </si>
   <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB888BD-CDEA-4F7E-8EB6-421F46A7B35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746672D3-2E52-4F84-AA94-59A9E8AE73D1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2864,7 +2870,7 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -2873,13 +2879,13 @@
         <v>317687</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2900,13 @@
         <v>384558</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>466</v>
@@ -2909,13 +2915,13 @@
         <v>477063</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>867</v>
@@ -2924,13 +2930,13 @@
         <v>861621</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>560346</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>803</v>
@@ -3013,13 +3019,13 @@
         <v>824009</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>1352</v>
@@ -3028,13 +3034,13 @@
         <v>1384355</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3055,13 @@
         <v>2715312</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>2493</v>
@@ -3064,13 +3070,13 @@
         <v>2554248</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>5157</v>
@@ -3079,13 +3085,13 @@
         <v>5269561</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D16E36-715C-4C95-89A4-5ECBE146C59F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E9B0C6-E920-4226-9144-3B13CDBCB87B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3293,13 @@
         <v>109493</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -3302,13 +3308,13 @@
         <v>129113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>235</v>
@@ -3317,13 +3323,13 @@
         <v>238606</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3344,13 @@
         <v>343699</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>295</v>
@@ -3353,13 +3359,13 @@
         <v>301117</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>631</v>
@@ -3368,13 +3374,13 @@
         <v>644816</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3448,13 @@
         <v>163066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -3457,13 +3463,13 @@
         <v>212460</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3472,13 +3478,13 @@
         <v>375526</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +3499,7 @@
         <v>524021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>168</v>
@@ -3615,10 +3621,10 @@
         <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -3627,13 +3633,13 @@
         <v>295220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3654,13 @@
         <v>555419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3663,13 +3669,13 @@
         <v>540169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1043</v>
@@ -3678,13 +3684,13 @@
         <v>1095587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3758,13 @@
         <v>98873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3767,13 +3773,13 @@
         <v>129853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>204</v>
@@ -3782,13 +3788,13 @@
         <v>228726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3809,13 @@
         <v>515744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -3818,13 +3824,13 @@
         <v>485387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -3833,13 +3839,13 @@
         <v>1001131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3913,13 @@
         <v>75590</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3922,13 +3928,13 @@
         <v>104128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -3937,7 +3943,7 @@
         <v>179718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>217</v>
@@ -3958,13 +3964,13 @@
         <v>353839</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -3973,13 +3979,13 @@
         <v>343672</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>629</v>
@@ -3988,13 +3994,13 @@
         <v>697511</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4068,13 @@
         <v>133819</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -4077,13 +4083,13 @@
         <v>234415</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>337</v>
@@ -4092,13 +4098,13 @@
         <v>368234</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4119,13 @@
         <v>424818</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>474</v>
@@ -4128,13 +4134,13 @@
         <v>508560</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -4143,13 +4149,13 @@
         <v>933378</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4223,13 @@
         <v>706558</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>908</v>
@@ -4232,13 +4238,13 @@
         <v>979473</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>1571</v>
@@ -4247,13 +4253,13 @@
         <v>1686030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4274,13 @@
         <v>2717540</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>2387</v>
@@ -4295,10 +4301,10 @@
         <v>4930</v>
       </c>
       <c r="N23" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>258</v>
@@ -4346,7 +4352,7 @@
         <v>6501</v>
       </c>
       <c r="N24" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4360,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7CA96C-90EA-4725-B768-02320CB6BD0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AA6472-6A8C-45C5-B21E-EBF0C0253CC9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4536,13 +4542,13 @@
         <v>187838</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4563,13 @@
         <v>325908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4572,13 +4578,13 @@
         <v>301472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>615</v>
@@ -4587,13 +4593,13 @@
         <v>627380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4667,13 @@
         <v>96577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -4676,13 +4682,13 @@
         <v>140520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>232</v>
@@ -4691,13 +4697,13 @@
         <v>237097</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4718,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -4727,13 +4733,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -4742,13 +4748,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4822,13 @@
         <v>107456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4831,13 +4837,13 @@
         <v>142192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -4846,13 +4852,13 @@
         <v>249648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4873,13 @@
         <v>559085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4882,13 +4888,13 @@
         <v>518326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>1064</v>
@@ -4897,13 +4903,13 @@
         <v>1077411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4977,13 @@
         <v>91270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -4986,13 +4992,13 @@
         <v>116696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -5001,13 +5007,13 @@
         <v>207966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5028,13 @@
         <v>552745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -5037,13 +5043,13 @@
         <v>532381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -5052,13 +5058,13 @@
         <v>1085126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5132,13 @@
         <v>73290</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -5141,13 +5147,13 @@
         <v>90000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -5156,13 +5162,13 @@
         <v>163291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5183,13 @@
         <v>402701</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -5192,13 +5198,13 @@
         <v>405030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>710</v>
@@ -5207,13 +5213,13 @@
         <v>807730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5287,13 @@
         <v>102441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -5296,13 +5302,13 @@
         <v>177789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>255</v>
@@ -5311,13 +5317,13 @@
         <v>280230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,10 +5338,10 @@
         <v>487949</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>358</v>
@@ -5439,10 +5445,10 @@
         <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>708</v>
@@ -5451,13 +5457,13 @@
         <v>761480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>1238</v>
@@ -5466,10 +5472,10 @@
         <v>1326069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>371</v>
@@ -5490,10 +5496,10 @@
         <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>2625</v>
@@ -5502,13 +5508,13 @@
         <v>2776603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>5316</v>
@@ -5517,13 +5523,13 @@
         <v>5595699</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01BAE25-3EA7-45A6-8094-AEDE83B9747D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E6627D-2CA6-49ED-A323-60DA019A80EC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5758,10 +5764,10 @@
         <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>311763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
@@ -5791,13 +5797,13 @@
         <v>260253</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
@@ -5806,13 +5812,13 @@
         <v>572015</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>86969</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -5895,13 +5901,13 @@
         <v>129948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -5910,13 +5916,13 @@
         <v>216918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>341427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -5946,13 +5952,13 @@
         <v>368629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
@@ -5961,13 +5967,13 @@
         <v>710055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,10 +6074,10 @@
         <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6092,13 @@
         <v>436964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
@@ -6101,13 +6107,13 @@
         <v>443277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1069</v>
@@ -6116,13 +6122,13 @@
         <v>880241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6196,13 @@
         <v>162815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -6205,13 +6211,13 @@
         <v>173007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -6220,13 +6226,13 @@
         <v>335822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6247,13 @@
         <v>559236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -6256,19 +6262,19 @@
         <v>573564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
       </c>
       <c r="N14" s="7">
-        <v>1132800</v>
+        <v>1132801</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>445</v>
@@ -6319,7 +6325,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1468622</v>
+        <v>1468623</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6378,10 +6384,10 @@
         <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>478775</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
@@ -6411,13 +6417,13 @@
         <v>452413</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
@@ -6426,13 +6432,13 @@
         <v>931187</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>464</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6506,13 @@
         <v>128697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>428</v>
@@ -6515,13 +6521,13 @@
         <v>346448</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>625</v>
@@ -6530,13 +6536,13 @@
         <v>475145</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,10 +6554,10 @@
         <v>831</v>
       </c>
       <c r="D20" s="7">
-        <v>569057</v>
+        <v>569058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>474</v>
@@ -6599,7 +6605,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6661,7 +6667,7 @@
         <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>1313</v>
@@ -6670,13 +6676,13 @@
         <v>1021764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -6685,13 +6691,13 @@
         <v>1707832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6712,13 @@
         <v>2697221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>4043</v>
@@ -6721,13 +6727,13 @@
         <v>2776461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>6723</v>
@@ -6736,13 +6742,13 @@
         <v>5473682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3420AD-3E41-4A42-A79A-761326405512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5519A76B-058C-41F9-80EC-63E5CB2E7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF6AE696-192B-4276-AF5F-24F27B459584}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6461A7D1-EA17-4E15-95BF-234C8903382A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1212 +77,1218 @@
     <t>19,9%</t>
   </si>
   <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>82,19%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
+    <t>80,84%</t>
   </si>
   <si>
     <t>79,87%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
     <t>21,59%</t>
   </si>
   <si>
@@ -1352,12 +1358,6 @@
     <t>25,63%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
     <t>25,12%</t>
   </si>
   <si>
@@ -1376,21 +1376,12 @@
     <t>74,37%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
     <t>23,22%</t>
   </si>
   <si>
@@ -1406,18 +1397,12 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
     <t>79,77%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
     <t>76,13%</t>
   </si>
   <si>
@@ -1430,9 +1415,6 @@
     <t>77,96%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
     <t>18,44%</t>
   </si>
   <si>
@@ -1454,9 +1436,6 @@
     <t>27,58%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
     <t>43,47%</t>
   </si>
   <si>
@@ -1484,9 +1463,6 @@
     <t>56,53%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
     <t>20,28%</t>
   </si>
   <si>
@@ -1505,9 +1481,6 @@
     <t>34,24%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
     <t>22,11%</t>
   </si>
   <si>
@@ -1530,9 +1503,6 @@
   </si>
   <si>
     <t>75,66%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
   </si>
   <si>
     <t>72,41%</t>
@@ -1950,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746672D3-2E52-4F84-AA94-59A9E8AE73D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0966C70-EBAC-4EE7-927E-EBA59A67CF94}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2694,13 +2664,13 @@
         <v>63105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -2709,13 +2679,13 @@
         <v>86432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -2724,13 +2694,13 @@
         <v>149537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2715,13 @@
         <v>323605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>312</v>
@@ -2760,13 +2730,13 @@
         <v>317554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>641</v>
@@ -2775,13 +2745,13 @@
         <v>641159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2807,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2819,13 @@
         <v>117908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -2864,13 +2834,13 @@
         <v>199779</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -2879,13 +2849,13 @@
         <v>317687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2870,13 @@
         <v>384558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>466</v>
@@ -2915,13 +2885,13 @@
         <v>477063</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>867</v>
@@ -2930,13 +2900,13 @@
         <v>861621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2974,13 @@
         <v>560346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>803</v>
@@ -3019,13 +2989,13 @@
         <v>824009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1352</v>
@@ -3034,13 +3004,13 @@
         <v>1384355</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3025,13 @@
         <v>2715312</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>2493</v>
@@ -3070,13 +3040,13 @@
         <v>2554248</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>5157</v>
@@ -3085,13 +3055,13 @@
         <v>5269561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3117,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E9B0C6-E920-4226-9144-3B13CDBCB87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD28A5DA-EA83-483B-BDC8-C36A6D9F85F4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3263,13 @@
         <v>109493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -3308,13 +3278,13 @@
         <v>129113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>235</v>
@@ -3323,13 +3293,13 @@
         <v>238606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3314,13 @@
         <v>343699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>295</v>
@@ -3359,13 +3329,13 @@
         <v>301117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>631</v>
@@ -3374,13 +3344,13 @@
         <v>644816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3418,13 @@
         <v>163066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -3463,13 +3433,13 @@
         <v>212460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3478,13 +3448,13 @@
         <v>375526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3469,13 @@
         <v>524021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -3514,13 +3484,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -3529,13 +3499,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3573,13 @@
         <v>125717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3618,13 +3588,13 @@
         <v>169503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -3633,13 +3603,13 @@
         <v>295220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3624,13 @@
         <v>555419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3669,10 +3639,10 @@
         <v>540169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>190</v>
@@ -3913,13 +3883,13 @@
         <v>75590</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3928,13 +3898,13 @@
         <v>104128</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -3943,7 +3913,7 @@
         <v>179718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>217</v>
@@ -3964,13 +3934,13 @@
         <v>353839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -3979,13 +3949,13 @@
         <v>343672</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>629</v>
@@ -3994,7 +3964,7 @@
         <v>697511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>224</v>
@@ -4056,7 +4026,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4235,7 +4205,7 @@
         <v>908</v>
       </c>
       <c r="I22" s="7">
-        <v>979473</v>
+        <v>979472</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>247</v>
@@ -4253,7 +4223,7 @@
         <v>1686030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>250</v>
@@ -4301,10 +4271,10 @@
         <v>4930</v>
       </c>
       <c r="N23" s="7">
-        <v>5293271</v>
+        <v>5293272</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>258</v>
@@ -4337,7 +4307,7 @@
         <v>3295</v>
       </c>
       <c r="I24" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4352,7 +4322,7 @@
         <v>6501</v>
       </c>
       <c r="N24" s="7">
-        <v>6979301</v>
+        <v>6979302</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4366,7 +4336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AA6472-6A8C-45C5-B21E-EBF0C0253CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ED1F7D-53D4-4224-8C98-9EE8BC8396DF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,10 +4655,10 @@
         <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>232</v>
@@ -4697,13 +4667,13 @@
         <v>237097</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4688,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -4733,13 +4703,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -4748,13 +4718,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4792,13 @@
         <v>107456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4837,13 +4807,13 @@
         <v>142192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -4852,13 +4822,13 @@
         <v>249648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4843,13 @@
         <v>559085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4888,13 +4858,13 @@
         <v>518326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>1064</v>
@@ -4903,13 +4873,13 @@
         <v>1077411</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4947,13 @@
         <v>91270</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -4992,13 +4962,13 @@
         <v>116696</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -5007,13 +4977,13 @@
         <v>207966</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +4998,13 @@
         <v>552745</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -5043,13 +5013,13 @@
         <v>532381</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -5058,13 +5028,13 @@
         <v>1085126</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5102,13 @@
         <v>73290</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -5147,13 +5117,13 @@
         <v>90000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -5162,13 +5132,13 @@
         <v>163291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5153,13 @@
         <v>402701</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -5198,13 +5168,13 @@
         <v>405030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M17" s="7">
         <v>710</v>
@@ -5213,13 +5183,13 @@
         <v>807730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5245,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5257,13 @@
         <v>102441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -5302,13 +5272,13 @@
         <v>177789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
         <v>255</v>
@@ -5317,13 +5287,13 @@
         <v>280230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5308,13 @@
         <v>487949</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>505</v>
@@ -5353,13 +5323,13 @@
         <v>597255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
         <v>1024</v>
@@ -5368,13 +5338,13 @@
         <v>1085204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5412,13 @@
         <v>564590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>708</v>
@@ -5457,13 +5427,13 @@
         <v>761480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>1238</v>
@@ -5472,13 +5442,13 @@
         <v>1326069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5463,13 @@
         <v>2819094</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>2625</v>
@@ -5508,13 +5478,13 @@
         <v>2776603</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>5316</v>
@@ -5523,13 +5493,13 @@
         <v>5595699</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E6627D-2CA6-49ED-A323-60DA019A80EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBF709-3B6D-4633-9B7F-18EFF1075369}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5919,10 +5889,10 @@
         <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5907,13 @@
         <v>341427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -5952,13 +5922,13 @@
         <v>368629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
@@ -5967,13 +5937,13 @@
         <v>710055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6011,13 @@
         <v>120288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -6056,13 +6026,13 @@
         <v>138469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -6071,13 +6041,13 @@
         <v>258757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6062,13 @@
         <v>436964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
@@ -6107,13 +6077,13 @@
         <v>443277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1069</v>
@@ -6122,13 +6092,13 @@
         <v>880241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6166,13 @@
         <v>162815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -6211,13 +6181,13 @@
         <v>173007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -6226,10 +6196,10 @@
         <v>335822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>439</v>
@@ -6268,7 +6238,7 @@
         <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
@@ -6277,13 +6247,13 @@
         <v>1132801</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6321,13 @@
         <v>121382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
@@ -6366,13 +6336,13 @@
         <v>141888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>367</v>
@@ -6381,13 +6351,13 @@
         <v>263271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6372,13 @@
         <v>478775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
@@ -6417,13 +6387,13 @@
         <v>452413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
@@ -6432,10 +6402,10 @@
         <v>931187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>463</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -6494,7 +6464,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6476,13 @@
         <v>128697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>428</v>
@@ -6521,13 +6491,13 @@
         <v>346448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>625</v>
@@ -6536,13 +6506,13 @@
         <v>475145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6527,13 @@
         <v>569058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H20" s="7">
         <v>1277</v>
@@ -6572,13 +6542,13 @@
         <v>678324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M20" s="7">
         <v>2108</v>
@@ -6587,13 +6557,13 @@
         <v>1247382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6631,13 @@
         <v>686068</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H22" s="7">
         <v>1313</v>
@@ -6676,13 +6646,13 @@
         <v>1021764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -6691,13 +6661,13 @@
         <v>1707832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6682,13 @@
         <v>2697221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>4043</v>
@@ -6727,13 +6697,13 @@
         <v>2776461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M23" s="7">
         <v>6723</v>
@@ -6742,13 +6712,13 @@
         <v>5473682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6774,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5519A76B-058C-41F9-80EC-63E5CB2E7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24C5750-4347-4293-BF1D-8D64C342C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6461A7D1-EA17-4E15-95BF-234C8903382A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E55C54-C772-436A-84A8-ABF5DCD7129A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1438 +77,1462 @@
     <t>19,9%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>19,26%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>75,3%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>72,14%</t>
   </si>
   <si>
     <t>77,73%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0966C70-EBAC-4EE7-927E-EBA59A67CF94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063CD2E9-F00F-4088-81B2-4DF01EC54EF8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2664,13 +2688,13 @@
         <v>63105</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -2679,13 +2703,13 @@
         <v>86432</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -2694,13 +2718,13 @@
         <v>149537</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2739,13 @@
         <v>323605</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>312</v>
@@ -2730,13 +2754,13 @@
         <v>317554</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>641</v>
@@ -2745,13 +2769,13 @@
         <v>641159</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2831,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2843,13 @@
         <v>117908</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -2834,13 +2858,13 @@
         <v>199779</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -2849,13 +2873,13 @@
         <v>317687</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2894,13 @@
         <v>384558</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>466</v>
@@ -2885,13 +2909,13 @@
         <v>477063</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>867</v>
@@ -2900,13 +2924,13 @@
         <v>861621</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2998,13 @@
         <v>560346</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>803</v>
@@ -2989,13 +3013,13 @@
         <v>824009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>1352</v>
@@ -3004,13 +3028,13 @@
         <v>1384355</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3049,13 @@
         <v>2715312</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>2493</v>
@@ -3040,13 +3064,13 @@
         <v>2554248</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>5157</v>
@@ -3055,13 +3079,13 @@
         <v>5269561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD28A5DA-EA83-483B-BDC8-C36A6D9F85F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF4E4-B5DA-448E-B745-16DE633F8FAC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3156,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,13 +3287,13 @@
         <v>109493</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -3278,13 +3302,13 @@
         <v>129113</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>235</v>
@@ -3293,13 +3317,13 @@
         <v>238606</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3338,13 @@
         <v>343699</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>295</v>
@@ -3329,13 +3353,13 @@
         <v>301117</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>631</v>
@@ -3344,13 +3368,13 @@
         <v>644816</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3442,13 @@
         <v>163066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -3433,13 +3457,13 @@
         <v>212460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3448,13 +3472,13 @@
         <v>375526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3493,13 @@
         <v>524021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -3484,13 +3508,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -3499,13 +3523,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3597,13 @@
         <v>125717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3588,13 +3612,13 @@
         <v>169503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -3603,13 +3627,13 @@
         <v>295220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3648,13 @@
         <v>555419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3639,13 +3663,13 @@
         <v>540169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>1043</v>
@@ -3654,13 +3678,13 @@
         <v>1095587</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3752,13 @@
         <v>98873</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3743,13 +3767,13 @@
         <v>129853</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>204</v>
@@ -3758,13 +3782,13 @@
         <v>228726</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3803,13 @@
         <v>515744</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -3794,13 +3818,13 @@
         <v>485387</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -3809,13 +3833,13 @@
         <v>1001131</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,10 +3907,10 @@
         <v>75590</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>212</v>
@@ -3934,13 +3958,13 @@
         <v>353839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -3949,13 +3973,13 @@
         <v>343672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>629</v>
@@ -3964,13 +3988,13 @@
         <v>697511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,7 +4050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4038,13 +4062,13 @@
         <v>133819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -4053,13 +4077,13 @@
         <v>234415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>337</v>
@@ -4068,13 +4092,13 @@
         <v>368234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4113,13 @@
         <v>424818</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>474</v>
@@ -4104,13 +4128,13 @@
         <v>508560</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>860</v>
@@ -4119,13 +4143,13 @@
         <v>933378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,28 +4217,28 @@
         <v>706558</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H22" s="7">
         <v>908</v>
       </c>
       <c r="I22" s="7">
-        <v>979472</v>
+        <v>979473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>1571</v>
@@ -4223,13 +4247,13 @@
         <v>1686030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4268,13 @@
         <v>2717540</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>2387</v>
@@ -4274,7 +4298,7 @@
         <v>5293272</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>258</v>
@@ -4307,7 +4331,7 @@
         <v>3295</v>
       </c>
       <c r="I24" s="7">
-        <v>3555203</v>
+        <v>3555204</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ED1F7D-53D4-4224-8C98-9EE8BC8396DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC118A-E411-4377-B8E9-A785B2CB95A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4512,13 +4536,13 @@
         <v>187838</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4557,13 @@
         <v>325908</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4548,13 +4572,13 @@
         <v>301472</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>615</v>
@@ -4563,13 +4587,13 @@
         <v>627380</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4661,13 @@
         <v>96577</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -4652,13 +4676,13 @@
         <v>140520</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>232</v>
@@ -4667,7 +4691,7 @@
         <v>237097</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>284</v>
@@ -4709,7 +4733,7 @@
         <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -4718,13 +4742,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4816,13 @@
         <v>107456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4807,13 +4831,13 @@
         <v>142192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -4822,13 +4846,13 @@
         <v>249648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4867,13 @@
         <v>559085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4858,10 +4882,10 @@
         <v>518326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>307</v>
@@ -5117,13 +5141,13 @@
         <v>90000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -5132,13 +5156,13 @@
         <v>163291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5177,13 @@
         <v>402701</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -5168,13 +5192,13 @@
         <v>405030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>710</v>
@@ -5183,13 +5207,13 @@
         <v>807730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5257,13 +5281,13 @@
         <v>102441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -5272,13 +5296,13 @@
         <v>177789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>255</v>
@@ -5287,13 +5311,13 @@
         <v>280230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5332,13 @@
         <v>487949</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>505</v>
@@ -5323,13 +5347,13 @@
         <v>597255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>1024</v>
@@ -5338,13 +5362,13 @@
         <v>1085204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5436,13 @@
         <v>564590</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>708</v>
@@ -5427,13 +5451,13 @@
         <v>761480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>1238</v>
@@ -5442,13 +5466,13 @@
         <v>1326069</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5487,13 @@
         <v>2819094</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
         <v>2625</v>
@@ -5555,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCBF709-3B6D-4633-9B7F-18EFF1075369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB4FF5-BFFC-4EE5-B005-26398BA13ABC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5734,10 +5758,10 @@
         <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5776,13 @@
         <v>311763</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
@@ -5767,13 +5791,13 @@
         <v>260253</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
@@ -5782,13 +5806,13 @@
         <v>572015</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5880,13 @@
         <v>86969</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -5871,13 +5895,13 @@
         <v>129948</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -5886,13 +5910,13 @@
         <v>216918</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5931,13 @@
         <v>341427</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -5922,13 +5946,13 @@
         <v>368629</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
@@ -5937,13 +5961,13 @@
         <v>710055</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6035,13 @@
         <v>120288</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -6026,13 +6050,13 @@
         <v>138469</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -6041,13 +6065,13 @@
         <v>258757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6086,13 @@
         <v>436964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
@@ -6077,13 +6101,13 @@
         <v>443277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M11" s="7">
         <v>1069</v>
@@ -6092,13 +6116,13 @@
         <v>880241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6190,13 @@
         <v>162815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
@@ -6181,13 +6205,13 @@
         <v>173007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
@@ -6196,13 +6220,13 @@
         <v>335822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6241,13 @@
         <v>559236</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -6232,28 +6256,28 @@
         <v>573564</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
       </c>
       <c r="N14" s="7">
-        <v>1132801</v>
+        <v>1132800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6319,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1468623</v>
+        <v>1468622</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6321,13 +6345,13 @@
         <v>121382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
@@ -6336,13 +6360,13 @@
         <v>141888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>367</v>
@@ -6351,13 +6375,13 @@
         <v>263271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6396,13 @@
         <v>478775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
@@ -6387,13 +6411,13 @@
         <v>452413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
@@ -6402,13 +6426,13 @@
         <v>931187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,7 +6488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6500,13 @@
         <v>128697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>428</v>
@@ -6491,13 +6515,13 @@
         <v>346448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>625</v>
@@ -6506,13 +6530,13 @@
         <v>475145</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,16 +6548,16 @@
         <v>831</v>
       </c>
       <c r="D20" s="7">
-        <v>569058</v>
+        <v>569057</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>1277</v>
@@ -6542,13 +6566,13 @@
         <v>678324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>2108</v>
@@ -6557,13 +6581,13 @@
         <v>1247382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6599,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6631,13 +6655,13 @@
         <v>686068</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7">
         <v>1313</v>
@@ -6646,13 +6670,13 @@
         <v>1021764</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>2008</v>
@@ -6661,13 +6685,13 @@
         <v>1707832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6706,13 @@
         <v>2697221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>4043</v>
@@ -6697,13 +6721,13 @@
         <v>2776461</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>6723</v>
@@ -6712,13 +6736,13 @@
         <v>5473682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24C5750-4347-4293-BF1D-8D64C342C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E60B01-E55A-416B-BD5E-407CD506B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E55C54-C772-436A-84A8-ABF5DCD7129A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{60059B82-5A46-4B34-8B97-F19DC1C93AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="569">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>15,14%</t>
@@ -191,7 +191,7 @@
     <t>80,31%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,05%</t>
@@ -248,7 +248,7 @@
     <t>84,89%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>15,42%</t>
@@ -305,7 +305,7 @@
     <t>84,53%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>12,93%</t>
@@ -356,61 +356,118 @@
     <t>83,64%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>17,11%</t>
@@ -725,58 +782,106 @@
     <t>82,17%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
   </si>
   <si>
     <t>20,63%</t>
@@ -1082,84 +1187,138 @@
     <t>85,64%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
     <t>78,48%</t>
   </si>
   <si>
@@ -1181,358 +1340,412 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +2157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063CD2E9-F00F-4088-81B2-4DF01EC54EF8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CAF6A0-6981-4DEC-9C96-256604BB194B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2837,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>117908</v>
+        <v>61279</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2852,10 +3065,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="I19" s="7">
-        <v>199779</v>
+        <v>94650</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2867,10 +3080,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="N19" s="7">
-        <v>317687</v>
+        <v>155929</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2888,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>384558</v>
+        <v>231304</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2903,10 +3116,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="I20" s="7">
-        <v>477063</v>
+        <v>248284</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2918,10 +3131,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>867</v>
+        <v>506</v>
       </c>
       <c r="N20" s="7">
-        <v>861621</v>
+        <v>479588</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2939,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2954,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2969,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2986,55 +3199,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>549</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7">
-        <v>560346</v>
+        <v>56629</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>803</v>
+        <v>92</v>
       </c>
       <c r="I22" s="7">
-        <v>824009</v>
+        <v>105129</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1352</v>
+        <v>149</v>
       </c>
       <c r="N22" s="7">
-        <v>1384355</v>
+        <v>161758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2664</v>
+        <v>163</v>
       </c>
       <c r="D23" s="7">
-        <v>2715312</v>
+        <v>153254</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2493</v>
+        <v>198</v>
       </c>
       <c r="I23" s="7">
-        <v>2554248</v>
+        <v>228779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5157</v>
+        <v>361</v>
       </c>
       <c r="N23" s="7">
-        <v>5269561</v>
+        <v>382033</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,63 +3307,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>549</v>
+      </c>
+      <c r="D25" s="7">
+        <v>560346</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>803</v>
+      </c>
+      <c r="I25" s="7">
+        <v>824009</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1352</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1384355</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2664</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2715313</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2493</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2554248</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5157</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5269560</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3275659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3378257</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6509</v>
       </c>
-      <c r="N24" s="7">
-        <v>6653916</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6653915</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3163,8 +3532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008CF4E4-B5DA-448E-B745-16DE633F8FAC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56FF09-C776-448C-86CD-FC7B507DBC2A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3180,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3656,13 @@
         <v>109493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>126</v>
@@ -3302,13 +3671,13 @@
         <v>129113</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>235</v>
@@ -3317,13 +3686,13 @@
         <v>238606</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3707,13 @@
         <v>343699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>295</v>
@@ -3353,13 +3722,13 @@
         <v>301117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>631</v>
@@ -3368,13 +3737,13 @@
         <v>644816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,10 +3814,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -3457,13 +3826,13 @@
         <v>212460</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>352</v>
@@ -3472,13 +3841,13 @@
         <v>375526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,10 +3865,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>376</v>
@@ -3508,13 +3877,13 @@
         <v>396827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>885</v>
@@ -3523,13 +3892,13 @@
         <v>920848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3966,13 @@
         <v>125717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3612,13 +3981,13 @@
         <v>169503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>273</v>
@@ -3627,13 +3996,13 @@
         <v>295220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +4017,13 @@
         <v>555419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3663,13 +4032,13 @@
         <v>540169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1043</v>
@@ -3678,13 +4047,13 @@
         <v>1095587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +4121,13 @@
         <v>98873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3767,13 +4136,13 @@
         <v>129853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>204</v>
@@ -3782,13 +4151,13 @@
         <v>228726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +4172,13 @@
         <v>515744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -3818,13 +4187,13 @@
         <v>485387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -3833,13 +4202,13 @@
         <v>1001131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +4276,13 @@
         <v>75590</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -3922,13 +4291,13 @@
         <v>104128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>170</v>
@@ -3937,13 +4306,13 @@
         <v>179718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +4327,13 @@
         <v>353839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -3973,13 +4342,13 @@
         <v>343672</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>629</v>
@@ -3988,13 +4357,13 @@
         <v>697511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4425,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>133819</v>
+        <v>56496</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="I19" s="7">
-        <v>234415</v>
+        <v>92124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>368234</v>
+        <v>148621</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4476,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>386</v>
+        <v>233</v>
       </c>
       <c r="D20" s="7">
-        <v>424818</v>
+        <v>252290</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
-        <v>474</v>
+        <v>253</v>
       </c>
       <c r="I20" s="7">
-        <v>508560</v>
+        <v>261872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>860</v>
+        <v>486</v>
       </c>
       <c r="N20" s="7">
-        <v>933378</v>
+        <v>514161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>558637</v>
+        <v>308786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4173,10 +4542,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4188,10 +4557,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301612</v>
+        <v>662782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4205,55 +4574,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>706558</v>
+        <v>77323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
-        <v>908</v>
+        <v>129</v>
       </c>
       <c r="I22" s="7">
-        <v>979473</v>
+        <v>142291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
-        <v>1571</v>
+        <v>198</v>
       </c>
       <c r="N22" s="7">
-        <v>1686030</v>
+        <v>219614</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4631,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2543</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7">
-        <v>2717540</v>
+        <v>172528</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>2387</v>
+        <v>221</v>
       </c>
       <c r="I23" s="7">
-        <v>2575731</v>
+        <v>246688</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
-        <v>4930</v>
+        <v>374</v>
       </c>
       <c r="N23" s="7">
-        <v>5293272</v>
+        <v>419216</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,63 +4682,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>663</v>
+      </c>
+      <c r="D25" s="7">
+        <v>706558</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="7">
+        <v>908</v>
+      </c>
+      <c r="I25" s="7">
+        <v>979472</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1571</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1686030</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2543</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2717540</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2387</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2575731</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4930</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5293271</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3206</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3424098</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
-        <v>3555204</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3555203</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6501</v>
       </c>
-      <c r="N24" s="7">
-        <v>6979302</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6979301</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4382,8 +4907,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AC118A-E411-4377-B8E9-A785B2CB95A3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0323E5F5-AA20-424E-AC9C-9671E2C55E74}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4399,7 +4924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,13 +5031,13 @@
         <v>93555</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -4521,13 +5046,13 @@
         <v>94283</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -4539,10 +5064,10 @@
         <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +5082,13 @@
         <v>325908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4572,13 +5097,13 @@
         <v>301472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>615</v>
@@ -4590,10 +5115,10 @@
         <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +5186,13 @@
         <v>96577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -4676,13 +5201,13 @@
         <v>140520</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>232</v>
@@ -4691,13 +5216,13 @@
         <v>237097</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +5237,13 @@
         <v>490707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -4727,13 +5252,13 @@
         <v>422139</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>910</v>
@@ -4742,13 +5267,13 @@
         <v>912847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +5341,13 @@
         <v>107456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -4831,13 +5356,13 @@
         <v>142192</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -4846,13 +5371,13 @@
         <v>249648</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +5392,13 @@
         <v>559085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>526</v>
@@ -4882,13 +5407,13 @@
         <v>518326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>1064</v>
@@ -4897,13 +5422,13 @@
         <v>1077411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +5496,13 @@
         <v>91270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -4986,13 +5511,13 @@
         <v>116696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -5001,13 +5526,13 @@
         <v>207966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5547,13 @@
         <v>552745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -5037,13 +5562,13 @@
         <v>532381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -5052,13 +5577,13 @@
         <v>1085126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5651,13 @@
         <v>73290</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -5141,13 +5666,13 @@
         <v>90000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -5156,13 +5681,13 @@
         <v>163291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5702,13 @@
         <v>402701</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -5192,13 +5717,13 @@
         <v>405030</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>710</v>
@@ -5207,13 +5732,13 @@
         <v>807730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5800,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>102441</v>
+        <v>56961</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="I19" s="7">
-        <v>177789</v>
+        <v>79602</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="N19" s="7">
-        <v>280230</v>
+        <v>136564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5851,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>519</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7">
-        <v>487949</v>
+        <v>276431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
-        <v>505</v>
+        <v>278</v>
       </c>
       <c r="I20" s="7">
-        <v>597255</v>
+        <v>296544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
-        <v>1024</v>
+        <v>548</v>
       </c>
       <c r="N20" s="7">
-        <v>1085204</v>
+        <v>572974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>590390</v>
+        <v>333392</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5392,10 +5917,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>653</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>775044</v>
+        <v>376146</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5407,10 +5932,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1365434</v>
+        <v>709538</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5424,55 +5949,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>530</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>564590</v>
+        <v>45480</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
-        <v>708</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7">
-        <v>761480</v>
+        <v>98186</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
-        <v>1238</v>
+        <v>126</v>
       </c>
       <c r="N22" s="7">
-        <v>1326069</v>
+        <v>143666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,49 +6006,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2691</v>
+        <v>249</v>
       </c>
       <c r="D23" s="7">
-        <v>2819094</v>
+        <v>211518</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
-        <v>2625</v>
+        <v>227</v>
       </c>
       <c r="I23" s="7">
-        <v>2776603</v>
+        <v>300712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
-        <v>5316</v>
+        <v>476</v>
       </c>
       <c r="N23" s="7">
-        <v>5595699</v>
+        <v>512230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,63 +6057,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398898</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655896</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>530</v>
+      </c>
+      <c r="D25" s="7">
+        <v>564590</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H25" s="7">
+        <v>708</v>
+      </c>
+      <c r="I25" s="7">
+        <v>761480</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1238</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1326069</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2691</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2819094</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2625</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2776603</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5316</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5595698</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3221</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3383684</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3538083</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6554</v>
       </c>
-      <c r="N24" s="7">
-        <v>6921768</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6921767</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5601,8 +6282,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB4FF5-BFFC-4EE5-B005-26398BA13ABC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD71191-13E6-49A3-B805-0E4C9CB3EBD0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5618,7 +6299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5722,46 +6403,46 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>65916</v>
+        <v>75878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>92003</v>
+        <v>81389</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>157920</v>
+        <v>157267</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>347</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,46 +6454,46 @@
         <v>145</v>
       </c>
       <c r="D5" s="7">
-        <v>311763</v>
+        <v>324109</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
       </c>
       <c r="I5" s="7">
-        <v>260253</v>
+        <v>229583</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
       </c>
       <c r="N5" s="7">
-        <v>572015</v>
+        <v>553692</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +6505,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5839,7 +6520,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>352256</v>
+        <v>310972</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5854,7 +6535,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>729935</v>
+        <v>710959</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5877,46 +6558,46 @@
         <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>86969</v>
+        <v>88270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
       </c>
       <c r="I7" s="7">
-        <v>129948</v>
+        <v>122761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
       </c>
       <c r="N7" s="7">
-        <v>216918</v>
+        <v>211031</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,46 +6609,46 @@
         <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>341427</v>
+        <v>335277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
       </c>
       <c r="I8" s="7">
-        <v>368629</v>
+        <v>388743</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>581</v>
       </c>
       <c r="N8" s="7">
-        <v>710055</v>
+        <v>724020</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,7 +6660,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5994,7 +6675,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6009,7 +6690,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6032,46 +6713,46 @@
         <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>120288</v>
+        <v>117344</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>138469</v>
+        <v>130548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
       </c>
       <c r="N10" s="7">
-        <v>258757</v>
+        <v>247891</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,46 +6764,46 @@
         <v>432</v>
       </c>
       <c r="D11" s="7">
-        <v>436964</v>
+        <v>418994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>637</v>
       </c>
       <c r="I11" s="7">
-        <v>443277</v>
+        <v>410327</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>1069</v>
       </c>
       <c r="N11" s="7">
-        <v>880241</v>
+        <v>829322</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,7 +6815,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6149,7 +6830,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581746</v>
+        <v>540875</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6164,7 +6845,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138998</v>
+        <v>1077213</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6187,46 +6868,46 @@
         <v>162</v>
       </c>
       <c r="D13" s="7">
-        <v>162815</v>
+        <v>158175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>272</v>
       </c>
       <c r="I13" s="7">
-        <v>173007</v>
+        <v>162048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>434</v>
       </c>
       <c r="N13" s="7">
-        <v>335822</v>
+        <v>320223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,46 +6919,46 @@
         <v>502</v>
       </c>
       <c r="D14" s="7">
-        <v>559236</v>
+        <v>727858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
       </c>
       <c r="I14" s="7">
-        <v>573564</v>
+        <v>550182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>1370</v>
       </c>
       <c r="N14" s="7">
-        <v>1132800</v>
+        <v>1278040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6970,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722051</v>
+        <v>886033</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6304,7 +6985,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746571</v>
+        <v>712230</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6319,7 +7000,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1468622</v>
+        <v>1598263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6342,46 +7023,46 @@
         <v>134</v>
       </c>
       <c r="D16" s="7">
-        <v>121382</v>
+        <v>115273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>233</v>
       </c>
       <c r="I16" s="7">
-        <v>141888</v>
+        <v>130899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>367</v>
       </c>
       <c r="N16" s="7">
-        <v>263271</v>
+        <v>246172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,46 +7074,46 @@
         <v>529</v>
       </c>
       <c r="D17" s="7">
-        <v>478775</v>
+        <v>445961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>768</v>
       </c>
       <c r="I17" s="7">
-        <v>452413</v>
+        <v>414667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
       </c>
       <c r="N17" s="7">
-        <v>931187</v>
+        <v>860627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +7125,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6459,7 +7140,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6474,7 +7155,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1194458</v>
+        <v>1106799</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6494,49 +7175,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="D19" s="7">
-        <v>128697</v>
+        <v>64042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
-        <v>428</v>
+        <v>184</v>
       </c>
       <c r="I19" s="7">
-        <v>346448</v>
+        <v>296532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
-        <v>625</v>
+        <v>283</v>
       </c>
       <c r="N19" s="7">
-        <v>475145</v>
+        <v>360574</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,49 +7226,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>831</v>
+        <v>471</v>
       </c>
       <c r="D20" s="7">
-        <v>569057</v>
+        <v>304123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
-        <v>1277</v>
+        <v>642</v>
       </c>
       <c r="I20" s="7">
-        <v>678324</v>
+        <v>311257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
-        <v>2108</v>
+        <v>1113</v>
       </c>
       <c r="N20" s="7">
-        <v>1247382</v>
+        <v>615380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,10 +7277,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6611,10 +7292,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1024772</v>
+        <v>607789</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6626,10 +7307,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1722527</v>
+        <v>975954</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6643,55 +7324,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>695</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
-        <v>686068</v>
+        <v>57941</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
-        <v>1313</v>
+        <v>244</v>
       </c>
       <c r="I22" s="7">
-        <v>1021764</v>
+        <v>122310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
-        <v>2008</v>
+        <v>342</v>
       </c>
       <c r="N22" s="7">
-        <v>1707832</v>
+        <v>180251</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,49 +7381,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2680</v>
+        <v>360</v>
       </c>
       <c r="D23" s="7">
-        <v>2697221</v>
+        <v>224818</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7">
-        <v>4043</v>
+        <v>635</v>
       </c>
       <c r="I23" s="7">
-        <v>2776461</v>
+        <v>302445</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
-        <v>6723</v>
+        <v>995</v>
       </c>
       <c r="N23" s="7">
-        <v>5473682</v>
+        <v>527263</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,63 +7432,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424755</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707514</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>695</v>
+      </c>
+      <c r="D25" s="7">
+        <v>676924</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1313</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1046486</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2008</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1723411</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2680</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2781140</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4043</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2607205</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6723</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5388344</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383289</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458064</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3798225</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3653691</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8731</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181514</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7111755</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
